--- a/Data/SalesTrend/SalesTrend_CSB.xlsx
+++ b/Data/SalesTrend/SalesTrend_CSB.xlsx
@@ -579,31 +579,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>99.25</v>
+        <v>100.04</v>
       </c>
       <c r="C2">
-        <v>110.32</v>
+        <v>111.58</v>
       </c>
       <c r="D2">
-        <v>96.95999999999999</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="E2">
-        <v>28.14</v>
+        <v>28.05</v>
       </c>
       <c r="F2">
-        <v>74.3</v>
+        <v>76.31</v>
       </c>
       <c r="G2">
-        <v>78.62</v>
+        <v>77.5</v>
       </c>
       <c r="H2">
-        <v>96.69</v>
+        <v>98.89</v>
       </c>
       <c r="I2">
-        <v>50.6</v>
+        <v>50.69</v>
       </c>
       <c r="J2">
-        <v>105.58</v>
+        <v>107.13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -611,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>103.95</v>
+        <v>108.57</v>
       </c>
       <c r="C3">
-        <v>115.88</v>
+        <v>119.24</v>
       </c>
       <c r="D3">
-        <v>111.67</v>
+        <v>117.4</v>
       </c>
       <c r="E3">
-        <v>7.99</v>
+        <v>9.41</v>
       </c>
       <c r="F3">
-        <v>50.32</v>
+        <v>51.06</v>
       </c>
       <c r="G3">
-        <v>100.48</v>
+        <v>97.69</v>
       </c>
       <c r="H3">
-        <v>100.7</v>
+        <v>103.12</v>
       </c>
       <c r="I3">
-        <v>60.97</v>
+        <v>61.16</v>
       </c>
       <c r="J3">
-        <v>109.13</v>
+        <v>114.65</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -643,31 +643,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>109.26</v>
+        <v>123.38</v>
       </c>
       <c r="C4">
-        <v>128.25</v>
+        <v>133.33</v>
       </c>
       <c r="D4">
-        <v>155.29</v>
+        <v>166.72</v>
       </c>
       <c r="E4">
-        <v>11.77</v>
+        <v>11.28</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
-        <v>85.02</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="I4">
-        <v>44.19</v>
+        <v>44.55</v>
       </c>
       <c r="J4">
-        <v>152.38</v>
+        <v>171.43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -675,31 +675,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>118.22</v>
+        <v>117.76</v>
       </c>
       <c r="C5">
-        <v>117.43</v>
+        <v>115.29</v>
       </c>
       <c r="D5">
-        <v>102.22</v>
+        <v>104.98</v>
       </c>
       <c r="E5">
-        <v>16.09</v>
+        <v>15.42</v>
       </c>
       <c r="F5">
-        <v>30.92</v>
+        <v>29.63</v>
       </c>
       <c r="G5">
-        <v>130.43</v>
+        <v>125</v>
       </c>
       <c r="H5">
-        <v>127.34</v>
+        <v>126.27</v>
       </c>
       <c r="I5">
-        <v>59.19</v>
+        <v>57.09</v>
       </c>
       <c r="J5">
-        <v>124.93</v>
+        <v>119.73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -707,31 +707,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>84.97</v>
+        <v>83.31</v>
       </c>
       <c r="C6">
-        <v>91.41</v>
+        <v>90.36</v>
       </c>
       <c r="D6">
-        <v>101.05</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="E6">
-        <v>5.68</v>
+        <v>5.44</v>
       </c>
       <c r="F6">
-        <v>89.44</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G6">
-        <v>127.54</v>
+        <v>122.22</v>
       </c>
       <c r="H6">
-        <v>153.84</v>
+        <v>147.43</v>
       </c>
       <c r="I6">
-        <v>43.94</v>
+        <v>43.01</v>
       </c>
       <c r="J6">
-        <v>80.11</v>
+        <v>76.77</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -739,31 +739,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>112.23</v>
+        <v>107.55</v>
       </c>
       <c r="C7">
-        <v>158.53</v>
+        <v>160.24</v>
       </c>
       <c r="D7">
-        <v>87.54000000000001</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.92</v>
+        <v>29.63</v>
       </c>
       <c r="G7">
-        <v>66.25</v>
+        <v>63.49</v>
       </c>
       <c r="H7">
-        <v>116.58</v>
+        <v>112.86</v>
       </c>
       <c r="I7">
-        <v>50.58</v>
+        <v>49.62</v>
       </c>
       <c r="J7">
-        <v>178.88</v>
+        <v>171.43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -771,31 +771,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>127.27</v>
+        <v>121.97</v>
       </c>
       <c r="C8">
-        <v>138.35</v>
+        <v>132.58</v>
       </c>
       <c r="D8">
-        <v>121.91</v>
+        <v>116.83</v>
       </c>
       <c r="E8">
-        <v>32.18</v>
+        <v>30.84</v>
       </c>
       <c r="F8">
-        <v>139.13</v>
+        <v>133.33</v>
       </c>
       <c r="G8">
-        <v>123.91</v>
+        <v>118.75</v>
       </c>
       <c r="H8">
-        <v>74.43000000000001</v>
+        <v>71.33</v>
       </c>
       <c r="I8">
-        <v>93.12</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="J8">
-        <v>82.01000000000001</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -803,31 +803,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>75.95999999999999</v>
+        <v>115.53</v>
       </c>
       <c r="C9">
-        <v>106.11</v>
+        <v>118.99</v>
       </c>
       <c r="D9">
-        <v>93.11</v>
+        <v>118.75</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>17.44</v>
       </c>
       <c r="F9">
-        <v>10.7</v>
+        <v>30.77</v>
       </c>
       <c r="G9">
-        <v>84.13</v>
+        <v>89.92</v>
       </c>
       <c r="H9">
-        <v>85.62</v>
+        <v>102.56</v>
       </c>
       <c r="I9">
-        <v>73.81999999999999</v>
+        <v>83.14</v>
       </c>
       <c r="J9">
-        <v>122.09</v>
+        <v>152.38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -835,31 +835,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>108.18</v>
+        <v>103.67</v>
       </c>
       <c r="C10">
-        <v>130.92</v>
+        <v>127.78</v>
       </c>
       <c r="D10">
-        <v>173.28</v>
+        <v>164.02</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>15.46</v>
+        <v>14.81</v>
       </c>
       <c r="G10">
-        <v>161.1</v>
+        <v>154.39</v>
       </c>
       <c r="H10">
-        <v>132.41</v>
+        <v>126.89</v>
       </c>
       <c r="I10">
-        <v>36.48</v>
+        <v>34.96</v>
       </c>
       <c r="J10">
-        <v>107.51</v>
+        <v>103.03</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -867,31 +867,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>106.36</v>
+        <v>129.78</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>114.61</v>
       </c>
       <c r="D11">
-        <v>94.45</v>
+        <v>138.3</v>
       </c>
       <c r="E11">
-        <v>6.42</v>
+        <v>6.15</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>72.59</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H11">
-        <v>102.96</v>
+        <v>129.14</v>
       </c>
       <c r="I11">
-        <v>88.95</v>
+        <v>103.95</v>
       </c>
       <c r="J11">
-        <v>67.45999999999999</v>
+        <v>109.09</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -899,31 +899,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>40.96</v>
+        <v>39.26</v>
       </c>
       <c r="C12">
-        <v>59.49</v>
+        <v>57.01</v>
       </c>
       <c r="D12">
-        <v>68.23</v>
+        <v>65.39</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G12">
-        <v>60.49</v>
+        <v>57.97</v>
       </c>
       <c r="H12">
-        <v>56.21</v>
+        <v>53.87</v>
       </c>
       <c r="I12">
-        <v>57.11</v>
+        <v>57.21</v>
       </c>
       <c r="J12">
-        <v>127.54</v>
+        <v>122.22</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -931,31 +931,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>92.2</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="C13">
-        <v>110.04</v>
+        <v>108.88</v>
       </c>
       <c r="D13">
-        <v>101.73</v>
+        <v>100.02</v>
       </c>
       <c r="E13">
-        <v>11.72</v>
+        <v>11.23</v>
       </c>
       <c r="F13">
-        <v>109.45</v>
+        <v>110.22</v>
       </c>
       <c r="G13">
-        <v>66.98999999999999</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="H13">
-        <v>93.67</v>
+        <v>92.12</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>49.73</v>
       </c>
       <c r="J13">
-        <v>118.7</v>
+        <v>117.47</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -963,31 +963,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>103.09</v>
+        <v>102.88</v>
       </c>
       <c r="C14">
-        <v>121.27</v>
+        <v>123.35</v>
       </c>
       <c r="D14">
-        <v>91.75</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="E14">
-        <v>15.77</v>
+        <v>15.11</v>
       </c>
       <c r="F14">
-        <v>342.47</v>
+        <v>338.46</v>
       </c>
       <c r="G14">
-        <v>94.01000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="H14">
-        <v>84.20999999999999</v>
+        <v>82.05</v>
       </c>
       <c r="I14">
-        <v>40.92</v>
+        <v>39.8</v>
       </c>
       <c r="J14">
-        <v>146.27</v>
+        <v>140.17</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -995,31 +995,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>54.22</v>
+        <v>61.19</v>
       </c>
       <c r="C15">
-        <v>180.46</v>
+        <v>182.84</v>
       </c>
       <c r="D15">
-        <v>100.1</v>
+        <v>107.78</v>
       </c>
       <c r="E15">
-        <v>15.46</v>
+        <v>14.81</v>
       </c>
       <c r="F15">
-        <v>92.75</v>
+        <v>88.89</v>
       </c>
       <c r="G15">
-        <v>79.93000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H15">
-        <v>78.27</v>
+        <v>81.29000000000001</v>
       </c>
       <c r="I15">
-        <v>28.53</v>
+        <v>30.16</v>
       </c>
       <c r="J15">
-        <v>99.38</v>
+        <v>108.57</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1027,31 +1027,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>65.88</v>
+        <v>76.78</v>
       </c>
       <c r="C16">
-        <v>76.73</v>
+        <v>84.68000000000001</v>
       </c>
       <c r="D16">
-        <v>72.31</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>29.63</v>
       </c>
       <c r="G16">
-        <v>34.78</v>
+        <v>53.33</v>
       </c>
       <c r="H16">
-        <v>53.05</v>
+        <v>60.43</v>
       </c>
       <c r="I16">
-        <v>58.06</v>
+        <v>61.54</v>
       </c>
       <c r="J16">
-        <v>124.49</v>
+        <v>126.32</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1059,31 +1059,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>85.75</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="C17">
-        <v>117.12</v>
+        <v>112.24</v>
       </c>
       <c r="D17">
-        <v>156.09</v>
+        <v>149.59</v>
       </c>
       <c r="E17">
-        <v>7.46</v>
+        <v>7.15</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>63.67</v>
+        <v>61.02</v>
       </c>
       <c r="H17">
-        <v>137.55</v>
+        <v>131.82</v>
       </c>
       <c r="I17">
-        <v>73.48999999999999</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="J17">
-        <v>111.91</v>
+        <v>107.25</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1091,31 +1091,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>136.96</v>
+        <v>132.37</v>
       </c>
       <c r="C18">
-        <v>121.87</v>
+        <v>115.82</v>
       </c>
       <c r="D18">
-        <v>120.92</v>
+        <v>114.66</v>
       </c>
       <c r="E18">
-        <v>13.45</v>
+        <v>12.89</v>
       </c>
       <c r="F18">
-        <v>96.31999999999999</v>
+        <v>92.31</v>
       </c>
       <c r="G18">
-        <v>69.56999999999999</v>
+        <v>75</v>
       </c>
       <c r="H18">
-        <v>116.7</v>
+        <v>113.49</v>
       </c>
       <c r="I18">
-        <v>45.75</v>
+        <v>43.84</v>
       </c>
       <c r="J18">
-        <v>160.54</v>
+        <v>153.85</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1123,31 +1123,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>108.48</v>
+        <v>105.03</v>
       </c>
       <c r="C19">
-        <v>74.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="D19">
-        <v>92.54000000000001</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="E19">
-        <v>12.08</v>
+        <v>11.58</v>
       </c>
       <c r="F19">
-        <v>107.02</v>
+        <v>102.56</v>
       </c>
       <c r="G19">
-        <v>40.05</v>
+        <v>38.38</v>
       </c>
       <c r="H19">
-        <v>91.47</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="I19">
-        <v>66.11</v>
+        <v>63.8</v>
       </c>
       <c r="J19">
-        <v>91.09999999999999</v>
+        <v>90.48</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1155,31 +1155,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>55.4</v>
+        <v>53.1</v>
       </c>
       <c r="C20">
-        <v>74.45999999999999</v>
+        <v>71.36</v>
       </c>
       <c r="D20">
-        <v>75.16</v>
+        <v>72.02</v>
       </c>
       <c r="E20">
-        <v>16.09</v>
+        <v>15.42</v>
       </c>
       <c r="F20">
-        <v>30.92</v>
+        <v>29.63</v>
       </c>
       <c r="G20">
-        <v>111.3</v>
+        <v>106.67</v>
       </c>
       <c r="H20">
-        <v>76.69</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="I20">
-        <v>71.05</v>
+        <v>68.09</v>
       </c>
       <c r="J20">
-        <v>118.13</v>
+        <v>113.21</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1187,31 +1187,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>105.43</v>
+        <v>106.02</v>
       </c>
       <c r="C21">
-        <v>129.43</v>
+        <v>135.13</v>
       </c>
       <c r="D21">
-        <v>92.34</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="E21">
-        <v>23.97</v>
+        <v>22.97</v>
       </c>
       <c r="F21">
-        <v>104.8</v>
+        <v>114.29</v>
       </c>
       <c r="G21">
-        <v>77.23</v>
+        <v>76.36</v>
       </c>
       <c r="H21">
-        <v>88.01000000000001</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="I21">
-        <v>45.69</v>
+        <v>47.32</v>
       </c>
       <c r="J21">
-        <v>100.8</v>
+        <v>104.76</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1219,31 +1219,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>105.36</v>
+        <v>103.23</v>
       </c>
       <c r="C22">
-        <v>118.94</v>
+        <v>123.24</v>
       </c>
       <c r="D22">
-        <v>84.14</v>
+        <v>82.09</v>
       </c>
       <c r="E22">
-        <v>57.69</v>
+        <v>55.28</v>
       </c>
       <c r="F22">
-        <v>119.25</v>
+        <v>123.81</v>
       </c>
       <c r="G22">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H22">
-        <v>98.08</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="I22">
-        <v>41.83</v>
+        <v>41.62</v>
       </c>
       <c r="J22">
-        <v>150.49</v>
+        <v>146.94</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1251,31 +1251,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>123.84</v>
+        <v>123.71</v>
       </c>
       <c r="C23">
-        <v>106.38</v>
+        <v>116.63</v>
       </c>
       <c r="D23">
-        <v>106.09</v>
+        <v>117.23</v>
       </c>
       <c r="E23">
-        <v>17.12</v>
+        <v>16.4</v>
       </c>
       <c r="F23">
-        <v>117.16</v>
+        <v>119.3</v>
       </c>
       <c r="G23">
-        <v>70.70999999999999</v>
+        <v>72.13</v>
       </c>
       <c r="H23">
-        <v>92.05</v>
+        <v>101.95</v>
       </c>
       <c r="I23">
-        <v>37.74</v>
+        <v>40.15</v>
       </c>
       <c r="J23">
-        <v>90.18000000000001</v>
+        <v>108.64</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1283,31 +1283,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>141.35</v>
+        <v>135.46</v>
       </c>
       <c r="C24">
-        <v>177.61</v>
+        <v>170.21</v>
       </c>
       <c r="D24">
-        <v>108.07</v>
+        <v>103.56</v>
       </c>
       <c r="E24">
-        <v>12.49</v>
+        <v>11.97</v>
       </c>
       <c r="F24">
-        <v>113.04</v>
+        <v>108.33</v>
       </c>
       <c r="G24">
-        <v>115.28</v>
+        <v>110.48</v>
       </c>
       <c r="H24">
-        <v>101.74</v>
+        <v>97.5</v>
       </c>
       <c r="I24">
-        <v>53.94</v>
+        <v>51.7</v>
       </c>
       <c r="J24">
-        <v>110.63</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1315,31 +1315,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>57.03</v>
+        <v>63.66</v>
       </c>
       <c r="C25">
-        <v>93.29000000000001</v>
+        <v>117.67</v>
       </c>
       <c r="D25">
-        <v>80.43000000000001</v>
+        <v>86.86</v>
       </c>
       <c r="E25">
-        <v>45.35</v>
+        <v>43.46</v>
       </c>
       <c r="F25">
-        <v>73.23</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="G25">
-        <v>92.75</v>
+        <v>88.89</v>
       </c>
       <c r="H25">
-        <v>68.94</v>
+        <v>82.53</v>
       </c>
       <c r="I25">
-        <v>46.22</v>
+        <v>53.62</v>
       </c>
       <c r="J25">
-        <v>70.67</v>
+        <v>82.54000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1347,31 +1347,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>99.48999999999999</v>
+        <v>103.97</v>
       </c>
       <c r="C26">
-        <v>110.52</v>
+        <v>118.94</v>
       </c>
       <c r="D26">
-        <v>85.73999999999999</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>108.21</v>
+        <v>192.59</v>
       </c>
       <c r="G26">
-        <v>61.84</v>
+        <v>63.49</v>
       </c>
       <c r="H26">
-        <v>75.06</v>
+        <v>78.36</v>
       </c>
       <c r="I26">
-        <v>45.18</v>
+        <v>50.08</v>
       </c>
       <c r="J26">
-        <v>83.48</v>
+        <v>82.95999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1379,31 +1379,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>97.26000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="C27">
-        <v>79.08</v>
+        <v>77.83</v>
       </c>
       <c r="D27">
-        <v>94.15000000000001</v>
+        <v>92.12</v>
       </c>
       <c r="E27">
-        <v>38.23</v>
+        <v>36.64</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>47.92</v>
       </c>
       <c r="G27">
-        <v>82.92</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="H27">
-        <v>109.2</v>
+        <v>108.5</v>
       </c>
       <c r="I27">
-        <v>53.56</v>
+        <v>51.59</v>
       </c>
       <c r="J27">
-        <v>104.74</v>
+        <v>104.44</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1411,31 +1411,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>77.68000000000001</v>
+        <v>74.44</v>
       </c>
       <c r="C28">
-        <v>86</v>
+        <v>82.41</v>
       </c>
       <c r="D28">
-        <v>84.44</v>
+        <v>80.92</v>
       </c>
       <c r="E28">
-        <v>51.11</v>
+        <v>48.98</v>
       </c>
       <c r="F28">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G28">
-        <v>59.63</v>
+        <v>57.14</v>
       </c>
       <c r="H28">
-        <v>94.89</v>
+        <v>90.94</v>
       </c>
       <c r="I28">
-        <v>38.39</v>
+        <v>36.79</v>
       </c>
       <c r="J28">
-        <v>81.38</v>
+        <v>77.98999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1443,31 +1443,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>120.17</v>
+        <v>116.59</v>
       </c>
       <c r="C29">
-        <v>86.43000000000001</v>
+        <v>82.83</v>
       </c>
       <c r="D29">
-        <v>110.48</v>
+        <v>109.74</v>
       </c>
       <c r="E29">
-        <v>54.29</v>
+        <v>52.03</v>
       </c>
       <c r="F29">
-        <v>61.84</v>
+        <v>59.26</v>
       </c>
       <c r="G29">
-        <v>104.35</v>
+        <v>100</v>
       </c>
       <c r="H29">
-        <v>150.27</v>
+        <v>150.65</v>
       </c>
       <c r="I29">
-        <v>43.14</v>
+        <v>42.61</v>
       </c>
       <c r="J29">
-        <v>99.62</v>
+        <v>95.47</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1475,31 +1475,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>88.17</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="C30">
-        <v>95.48</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="D30">
-        <v>133.36</v>
+        <v>130.07</v>
       </c>
       <c r="E30">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F30">
-        <v>32.11</v>
+        <v>30.77</v>
       </c>
       <c r="G30">
-        <v>58.86</v>
+        <v>61.54</v>
       </c>
       <c r="H30">
-        <v>110</v>
+        <v>109.69</v>
       </c>
       <c r="I30">
-        <v>47.08</v>
+        <v>45.11</v>
       </c>
       <c r="J30">
-        <v>102.22</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1507,31 +1507,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>84.14</v>
+        <v>85.19</v>
       </c>
       <c r="C31">
-        <v>52.62</v>
+        <v>50.42</v>
       </c>
       <c r="D31">
-        <v>42.7</v>
+        <v>44.27</v>
       </c>
       <c r="E31">
-        <v>10.18</v>
+        <v>9.76</v>
       </c>
       <c r="F31">
-        <v>13.91</v>
+        <v>13.33</v>
       </c>
       <c r="G31">
-        <v>81.84</v>
+        <v>84.31</v>
       </c>
       <c r="H31">
-        <v>64.79000000000001</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="I31">
-        <v>87.08</v>
+        <v>83.45</v>
       </c>
       <c r="J31">
-        <v>118.52</v>
+        <v>143.21</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1539,31 +1539,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>105.63</v>
+        <v>101.23</v>
       </c>
       <c r="C32">
-        <v>81.7</v>
+        <v>82.84</v>
       </c>
       <c r="D32">
-        <v>78.95</v>
+        <v>75.66</v>
       </c>
       <c r="E32">
-        <v>65.31</v>
+        <v>62.58</v>
       </c>
       <c r="F32">
-        <v>61.84</v>
+        <v>59.26</v>
       </c>
       <c r="G32">
-        <v>105.55</v>
+        <v>101.15</v>
       </c>
       <c r="H32">
-        <v>111.85</v>
+        <v>108.21</v>
       </c>
       <c r="I32">
-        <v>73</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="J32">
-        <v>131.26</v>
+        <v>125.79</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1571,31 +1571,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>98.98999999999999</v>
+        <v>99.66</v>
       </c>
       <c r="C33">
-        <v>112.44</v>
+        <v>115.17</v>
       </c>
       <c r="D33">
-        <v>82.92</v>
+        <v>83.37</v>
       </c>
       <c r="E33">
-        <v>51.14</v>
+        <v>49.67</v>
       </c>
       <c r="F33">
-        <v>84.76000000000001</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="G33">
-        <v>68.56</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="H33">
-        <v>97.68000000000001</v>
+        <v>99.62</v>
       </c>
       <c r="I33">
-        <v>45.96</v>
+        <v>45.95</v>
       </c>
       <c r="J33">
-        <v>104.82</v>
+        <v>106.43</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1603,31 +1603,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>112.18</v>
+        <v>110.79</v>
       </c>
       <c r="C34">
-        <v>128.21</v>
+        <v>125.83</v>
       </c>
       <c r="D34">
-        <v>85.47</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="E34">
-        <v>82.34</v>
+        <v>78.91</v>
       </c>
       <c r="F34">
-        <v>86.13</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="G34">
-        <v>98.55</v>
+        <v>94.44</v>
       </c>
       <c r="H34">
-        <v>106.81</v>
+        <v>108.12</v>
       </c>
       <c r="I34">
-        <v>65.31</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="J34">
-        <v>117.54</v>
+        <v>119.54</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1635,31 +1635,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>117.84</v>
+        <v>114.84</v>
       </c>
       <c r="C35">
-        <v>139.13</v>
+        <v>136.82</v>
       </c>
       <c r="D35">
-        <v>84.19</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="E35">
-        <v>71.98</v>
+        <v>71.5</v>
       </c>
       <c r="F35">
-        <v>185.51</v>
+        <v>195.56</v>
       </c>
       <c r="G35">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="H35">
-        <v>95.2</v>
+        <v>93.27</v>
       </c>
       <c r="I35">
-        <v>32.46</v>
+        <v>31.38</v>
       </c>
       <c r="J35">
-        <v>103.49</v>
+        <v>100.28</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1667,31 +1667,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>50.63</v>
+        <v>48.52</v>
       </c>
       <c r="C36">
-        <v>23.04</v>
+        <v>22.08</v>
       </c>
       <c r="D36">
-        <v>60.45</v>
+        <v>57.93</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>92.75</v>
+        <v>88.89</v>
       </c>
       <c r="G36">
-        <v>39.75</v>
+        <v>38.1</v>
       </c>
       <c r="H36">
-        <v>64.25</v>
+        <v>61.58</v>
       </c>
       <c r="I36">
-        <v>17.6</v>
+        <v>16.87</v>
       </c>
       <c r="J36">
-        <v>41.96</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1699,31 +1699,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>79.69</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="C37">
-        <v>152.66</v>
+        <v>181.17</v>
       </c>
       <c r="D37">
-        <v>58.86</v>
+        <v>64.47</v>
       </c>
       <c r="E37">
-        <v>16.09</v>
+        <v>15.42</v>
       </c>
       <c r="F37">
-        <v>39.75</v>
+        <v>47.62</v>
       </c>
       <c r="G37">
-        <v>106.77</v>
+        <v>105.43</v>
       </c>
       <c r="H37">
-        <v>92.27</v>
+        <v>115.3</v>
       </c>
       <c r="I37">
-        <v>47.32</v>
+        <v>48.02</v>
       </c>
       <c r="J37">
-        <v>117.16</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1731,31 +1731,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>72.47</v>
+        <v>81.89</v>
       </c>
       <c r="C38">
-        <v>51.64</v>
+        <v>57.18</v>
       </c>
       <c r="D38">
-        <v>74.55</v>
+        <v>74.91</v>
       </c>
       <c r="E38">
-        <v>89.94</v>
+        <v>86.19</v>
       </c>
       <c r="F38">
-        <v>25.3</v>
+        <v>24.24</v>
       </c>
       <c r="G38">
-        <v>78.48</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="H38">
-        <v>79.5</v>
+        <v>79.52</v>
       </c>
       <c r="I38">
-        <v>37.52</v>
+        <v>41.77</v>
       </c>
       <c r="J38">
-        <v>100.75</v>
+        <v>104.98</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1763,31 +1763,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>122.51</v>
+        <v>115.97</v>
       </c>
       <c r="C39">
-        <v>136.77</v>
+        <v>131.07</v>
       </c>
       <c r="D39">
-        <v>98.93000000000001</v>
+        <v>94.81</v>
       </c>
       <c r="E39">
-        <v>36.39</v>
+        <v>34.87</v>
       </c>
       <c r="F39">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="G39">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="H39">
-        <v>109.3</v>
+        <v>104.75</v>
       </c>
       <c r="I39">
-        <v>78.84</v>
+        <v>75.55</v>
       </c>
       <c r="J39">
-        <v>126.67</v>
+        <v>121.39</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1795,31 +1795,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>174.18</v>
+        <v>166.92</v>
       </c>
       <c r="C40">
-        <v>146.29</v>
+        <v>140.2</v>
       </c>
       <c r="D40">
-        <v>157.68</v>
+        <v>165.54</v>
       </c>
       <c r="E40">
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="F40">
-        <v>92.75</v>
+        <v>88.89</v>
       </c>
       <c r="G40">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="H40">
-        <v>162.32</v>
+        <v>155.56</v>
       </c>
       <c r="I40">
-        <v>56.96</v>
+        <v>54.58</v>
       </c>
       <c r="J40">
-        <v>123.08</v>
+        <v>117.95</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1827,31 +1827,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>96.37</v>
+        <v>96.77</v>
       </c>
       <c r="C41">
-        <v>99.91</v>
+        <v>97.62</v>
       </c>
       <c r="D41">
-        <v>95.98999999999999</v>
+        <v>99.72</v>
       </c>
       <c r="E41">
-        <v>47.96</v>
+        <v>50.16</v>
       </c>
       <c r="F41">
-        <v>45.74</v>
+        <v>47.49</v>
       </c>
       <c r="G41">
-        <v>76.28</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H41">
-        <v>94.58</v>
+        <v>102.55</v>
       </c>
       <c r="I41">
-        <v>46.47</v>
+        <v>46.79</v>
       </c>
       <c r="J41">
-        <v>96.3</v>
+        <v>96.53</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1859,31 +1859,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>88.42</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="C42">
-        <v>127.05</v>
+        <v>121.76</v>
       </c>
       <c r="D42">
-        <v>109.14</v>
+        <v>104.59</v>
       </c>
       <c r="E42">
-        <v>29.16</v>
+        <v>27.94</v>
       </c>
       <c r="F42">
-        <v>30.92</v>
+        <v>29.63</v>
       </c>
       <c r="G42">
-        <v>54.44</v>
+        <v>52.17</v>
       </c>
       <c r="H42">
-        <v>143.13</v>
+        <v>137.16</v>
       </c>
       <c r="I42">
-        <v>51.57</v>
+        <v>49.42</v>
       </c>
       <c r="J42">
-        <v>125.88</v>
+        <v>120.63</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1891,31 +1891,31 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>67.25</v>
+        <v>64.45</v>
       </c>
       <c r="C43">
-        <v>72.26000000000001</v>
+        <v>69.25</v>
       </c>
       <c r="D43">
-        <v>49.65</v>
+        <v>47.58</v>
       </c>
       <c r="E43">
-        <v>67.78</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="F43">
-        <v>6.63</v>
+        <v>6.35</v>
       </c>
       <c r="G43">
-        <v>55.21</v>
+        <v>52.91</v>
       </c>
       <c r="H43">
-        <v>59.27</v>
+        <v>56.8</v>
       </c>
       <c r="I43">
-        <v>35.97</v>
+        <v>34.47</v>
       </c>
       <c r="J43">
-        <v>61.22</v>
+        <v>58.67</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1923,31 +1923,31 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>112.51</v>
+        <v>107.82</v>
       </c>
       <c r="C44">
-        <v>134.1</v>
+        <v>128.51</v>
       </c>
       <c r="D44">
-        <v>105.09</v>
+        <v>100.71</v>
       </c>
       <c r="E44">
-        <v>50.9</v>
+        <v>48.78</v>
       </c>
       <c r="F44">
-        <v>117.73</v>
+        <v>112.82</v>
       </c>
       <c r="G44">
-        <v>49.1</v>
+        <v>47.06</v>
       </c>
       <c r="H44">
-        <v>69.14</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="I44">
-        <v>43.84</v>
+        <v>42.01</v>
       </c>
       <c r="J44">
-        <v>85.62</v>
+        <v>82.05</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1955,31 +1955,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>137.94</v>
+        <v>156.88</v>
       </c>
       <c r="C45">
-        <v>76.52</v>
+        <v>81.11</v>
       </c>
       <c r="D45">
-        <v>103.48</v>
+        <v>128.59</v>
       </c>
       <c r="E45">
-        <v>60.57</v>
+        <v>90.7</v>
       </c>
       <c r="F45">
-        <v>61.84</v>
+        <v>88.89</v>
       </c>
       <c r="G45">
-        <v>178.88</v>
+        <v>185.03</v>
       </c>
       <c r="H45">
-        <v>112.35</v>
+        <v>164.22</v>
       </c>
       <c r="I45">
-        <v>57.68</v>
+        <v>70.7</v>
       </c>
       <c r="J45">
-        <v>101.19</v>
+        <v>122.94</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1987,31 +1987,31 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>93.77</v>
+        <v>98.72</v>
       </c>
       <c r="C46">
-        <v>78.33</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D46">
-        <v>123.56</v>
+        <v>139.95</v>
       </c>
       <c r="E46">
-        <v>27.45</v>
+        <v>26.3</v>
       </c>
       <c r="F46">
-        <v>46.38</v>
+        <v>44.44</v>
       </c>
       <c r="G46">
-        <v>50.59</v>
+        <v>48.48</v>
       </c>
       <c r="H46">
-        <v>103.85</v>
+        <v>116.01</v>
       </c>
       <c r="I46">
-        <v>54.89</v>
+        <v>56.26</v>
       </c>
       <c r="J46">
-        <v>120.4</v>
+        <v>115.38</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalesTrend/SalesTrend_CSB.xlsx
+++ b/Data/SalesTrend/SalesTrend_CSB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,141 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CSB</t>
+  </si>
+  <si>
+    <t>CSB10</t>
+  </si>
+  <si>
+    <t>CSB11</t>
+  </si>
+  <si>
+    <t>CSB12</t>
+  </si>
+  <si>
+    <t>CSB13</t>
+  </si>
+  <si>
+    <t>CSB14</t>
+  </si>
+  <si>
+    <t>CSB15</t>
+  </si>
+  <si>
+    <t>CSB16</t>
+  </si>
+  <si>
+    <t>CSB17</t>
+  </si>
+  <si>
+    <t>CSB18</t>
+  </si>
+  <si>
+    <t>CSB19</t>
+  </si>
+  <si>
+    <t>CSB20</t>
+  </si>
+  <si>
+    <t>CSB21</t>
+  </si>
+  <si>
+    <t>CSB22</t>
+  </si>
+  <si>
+    <t>CSB23</t>
+  </si>
+  <si>
+    <t>CSB24</t>
+  </si>
+  <si>
+    <t>CSB25</t>
+  </si>
+  <si>
+    <t>CSB26</t>
+  </si>
+  <si>
+    <t>CSB27</t>
+  </si>
+  <si>
+    <t>CSB30</t>
+  </si>
+  <si>
+    <t>CSB31</t>
+  </si>
+  <si>
+    <t>CSB32</t>
+  </si>
+  <si>
+    <t>CSB33</t>
+  </si>
+  <si>
+    <t>CSB34</t>
+  </si>
+  <si>
+    <t>CSB35</t>
+  </si>
+  <si>
+    <t>CSB40</t>
+  </si>
+  <si>
+    <t>CSB41</t>
+  </si>
+  <si>
+    <t>CSB42</t>
+  </si>
+  <si>
+    <t>CSB43</t>
+  </si>
+  <si>
+    <t>CSB44</t>
+  </si>
+  <si>
+    <t>CSB45</t>
+  </si>
+  <si>
+    <t>CSB50</t>
+  </si>
+  <si>
+    <t>CSB51</t>
+  </si>
+  <si>
+    <t>CSB52</t>
+  </si>
+  <si>
+    <t>CSB53</t>
+  </si>
+  <si>
+    <t>CSB54</t>
+  </si>
+  <si>
+    <t>CSB55</t>
+  </si>
+  <si>
+    <t>CSB56</t>
+  </si>
+  <si>
+    <t>CSB57</t>
+  </si>
+  <si>
+    <t>CSB60</t>
+  </si>
+  <si>
+    <t>CSB61</t>
+  </si>
+  <si>
+    <t>CSB62</t>
+  </si>
+  <si>
+    <t>CSB63</t>
+  </si>
+  <si>
+    <t>CSB64</t>
+  </si>
+  <si>
+    <t>CSB65</t>
   </si>
 </sst>
 </file>
@@ -401,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +574,1446 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>68.3</v>
+      </c>
+      <c r="C2">
+        <v>71.87</v>
+      </c>
+      <c r="D2">
+        <v>74.03</v>
+      </c>
+      <c r="E2">
+        <v>26.9</v>
+      </c>
+      <c r="F2">
+        <v>47.07</v>
+      </c>
+      <c r="G2">
+        <v>47.08</v>
+      </c>
+      <c r="H2">
+        <v>60.38</v>
+      </c>
+      <c r="I2">
+        <v>31.68</v>
+      </c>
+      <c r="J2">
+        <v>59.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>117.94</v>
+      </c>
+      <c r="C3">
+        <v>104.06</v>
+      </c>
+      <c r="D3">
+        <v>109.14</v>
+      </c>
+      <c r="E3">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="F3">
+        <v>83.14</v>
+      </c>
+      <c r="G3">
+        <v>60.61</v>
+      </c>
+      <c r="H3">
+        <v>110.7</v>
+      </c>
+      <c r="I3">
+        <v>55.77</v>
+      </c>
+      <c r="J3">
+        <v>80.48999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>36.34</v>
+      </c>
+      <c r="C4">
+        <v>38.16</v>
+      </c>
+      <c r="D4">
+        <v>73.33</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>54.39</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>17.32</v>
+      </c>
+      <c r="C5">
+        <v>104.33</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>114.81</v>
+      </c>
+      <c r="G5">
+        <v>70.45</v>
+      </c>
+      <c r="H5">
+        <v>45.4</v>
+      </c>
+      <c r="I5">
+        <v>20.41</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>46.25</v>
+      </c>
+      <c r="C6">
+        <v>98.62</v>
+      </c>
+      <c r="D6">
+        <v>35.32</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>31.22</v>
+      </c>
+      <c r="I6">
+        <v>14.93</v>
+      </c>
+      <c r="J6">
+        <v>82.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>312.31</v>
+      </c>
+      <c r="C7">
+        <v>55.69</v>
+      </c>
+      <c r="D7">
+        <v>119.03</v>
+      </c>
+      <c r="E7">
+        <v>63.92</v>
+      </c>
+      <c r="F7">
+        <v>590.48</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <v>49.12</v>
+      </c>
+      <c r="I7">
+        <v>58.37</v>
+      </c>
+      <c r="J7">
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>195.47</v>
+      </c>
+      <c r="C8">
+        <v>313.53</v>
+      </c>
+      <c r="D8">
+        <v>282.87</v>
+      </c>
+      <c r="E8">
+        <v>543.3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>73.81</v>
+      </c>
+      <c r="H8">
+        <v>380.31</v>
+      </c>
+      <c r="I8">
+        <v>146.01</v>
+      </c>
+      <c r="J8">
+        <v>177.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>107.51</v>
+      </c>
+      <c r="C9">
+        <v>142.87</v>
+      </c>
+      <c r="D9">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>229.63</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>129.17</v>
+      </c>
+      <c r="I9">
+        <v>133.01</v>
+      </c>
+      <c r="J9">
+        <v>76.54000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>69.12</v>
+      </c>
+      <c r="C10">
+        <v>9.75</v>
+      </c>
+      <c r="D10">
+        <v>84.18000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>73.81</v>
+      </c>
+      <c r="H10">
+        <v>75.7</v>
+      </c>
+      <c r="I10">
+        <v>46.06</v>
+      </c>
+      <c r="J10">
+        <v>180.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>57.12</v>
+      </c>
+      <c r="C11">
+        <v>11.31</v>
+      </c>
+      <c r="D11">
+        <v>17.73</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>98.41</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12.52</v>
+      </c>
+      <c r="J11">
+        <v>30.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>53.37</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>52.87</v>
+      </c>
+      <c r="C13">
+        <v>59.74</v>
+      </c>
+      <c r="D13">
+        <v>51.89</v>
+      </c>
+      <c r="E13">
+        <v>10.98</v>
+      </c>
+      <c r="F13">
+        <v>55.56</v>
+      </c>
+      <c r="G13">
+        <v>37.8</v>
+      </c>
+      <c r="H13">
+        <v>46.1</v>
+      </c>
+      <c r="I13">
+        <v>29.65</v>
+      </c>
+      <c r="J13">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>91.86</v>
+      </c>
+      <c r="C14">
+        <v>98.92</v>
+      </c>
+      <c r="D14">
+        <v>15.08</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>68.89</v>
+      </c>
+      <c r="G14">
+        <v>18.13</v>
+      </c>
+      <c r="H14">
+        <v>79.95</v>
+      </c>
+      <c r="I14">
+        <v>42.07</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>33.18</v>
+      </c>
+      <c r="D15">
+        <v>55.73</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>103.33</v>
+      </c>
+      <c r="G15">
+        <v>21.09</v>
+      </c>
+      <c r="H15">
+        <v>45.53</v>
+      </c>
+      <c r="I15">
+        <v>34.86</v>
+      </c>
+      <c r="J15">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>129.17</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>39.54</v>
+      </c>
+      <c r="I16">
+        <v>9.73</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>44.33</v>
+      </c>
+      <c r="C17">
+        <v>35.56</v>
+      </c>
+      <c r="D17">
+        <v>57.79</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>62.63</v>
+      </c>
+      <c r="H17">
+        <v>35.67</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>108.29</v>
+      </c>
+      <c r="C18">
+        <v>174.41</v>
+      </c>
+      <c r="D18">
+        <v>70.42</v>
+      </c>
+      <c r="E18">
+        <v>62.11</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>51.67</v>
+      </c>
+      <c r="H18">
+        <v>68.41</v>
+      </c>
+      <c r="I18">
+        <v>48.85</v>
+      </c>
+      <c r="J18">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>44.04</v>
+      </c>
+      <c r="C19">
+        <v>26.86</v>
+      </c>
+      <c r="D19">
+        <v>88.8</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>86.11</v>
+      </c>
+      <c r="G19">
+        <v>53.45</v>
+      </c>
+      <c r="H19">
+        <v>65.36</v>
+      </c>
+      <c r="I19">
+        <v>32.87</v>
+      </c>
+      <c r="J19">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>32.58</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>25.87</v>
+      </c>
+      <c r="J20">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>96.91</v>
+      </c>
+      <c r="C21">
+        <v>109.65</v>
+      </c>
+      <c r="D21">
+        <v>83.78</v>
+      </c>
+      <c r="E21">
+        <v>24.78</v>
+      </c>
+      <c r="F21">
+        <v>60.08</v>
+      </c>
+      <c r="G21">
+        <v>66.06</v>
+      </c>
+      <c r="H21">
+        <v>74.34</v>
+      </c>
+      <c r="I21">
+        <v>34.22</v>
+      </c>
+      <c r="J21">
+        <v>69.34999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>99.06</v>
+      </c>
+      <c r="C22">
+        <v>113.73</v>
+      </c>
+      <c r="D22">
+        <v>73.91</v>
+      </c>
+      <c r="E22">
+        <v>170.55</v>
+      </c>
+      <c r="F22">
+        <v>137.78</v>
+      </c>
+      <c r="G22">
+        <v>111.71</v>
+      </c>
+      <c r="H22">
+        <v>81.16</v>
+      </c>
+      <c r="I22">
+        <v>60.66</v>
+      </c>
+      <c r="J22">
+        <v>67.76000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>95.89</v>
+      </c>
+      <c r="C23">
+        <v>62.42</v>
+      </c>
+      <c r="D23">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>89.86</v>
+      </c>
+      <c r="G23">
+        <v>53.45</v>
+      </c>
+      <c r="H23">
+        <v>80.08</v>
+      </c>
+      <c r="I23">
+        <v>30.38</v>
+      </c>
+      <c r="J23">
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>139.2</v>
+      </c>
+      <c r="C24">
+        <v>116.82</v>
+      </c>
+      <c r="D24">
+        <v>131.53</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>49.21</v>
+      </c>
+      <c r="H24">
+        <v>93.8</v>
+      </c>
+      <c r="I24">
+        <v>32.54</v>
+      </c>
+      <c r="J24">
+        <v>100.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>37.92</v>
+      </c>
+      <c r="C25">
+        <v>31.88</v>
+      </c>
+      <c r="D25">
+        <v>23.75</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>86.11</v>
+      </c>
+      <c r="H25">
+        <v>26.71</v>
+      </c>
+      <c r="I25">
+        <v>59.11</v>
+      </c>
+      <c r="J25">
+        <v>57.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>110.38</v>
+      </c>
+      <c r="C26">
+        <v>223.49</v>
+      </c>
+      <c r="D26">
+        <v>103.09</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>68.89</v>
+      </c>
+      <c r="G26">
+        <v>53.45</v>
+      </c>
+      <c r="H26">
+        <v>76.39</v>
+      </c>
+      <c r="I26">
+        <v>5.95</v>
+      </c>
+      <c r="J26">
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>79.56</v>
+      </c>
+      <c r="C27">
+        <v>89.37</v>
+      </c>
+      <c r="D27">
+        <v>81.48</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>19.87</v>
+      </c>
+      <c r="G27">
+        <v>54.15</v>
+      </c>
+      <c r="H27">
+        <v>54.67</v>
+      </c>
+      <c r="I27">
+        <v>29.99</v>
+      </c>
+      <c r="J27">
+        <v>85.09999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="C28">
+        <v>73.81</v>
+      </c>
+      <c r="D28">
+        <v>50.65</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>81.58</v>
+      </c>
+      <c r="H28">
+        <v>92.86</v>
+      </c>
+      <c r="I28">
+        <v>15.06</v>
+      </c>
+      <c r="J28">
+        <v>63.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>47.05</v>
+      </c>
+      <c r="C29">
+        <v>120.68</v>
+      </c>
+      <c r="D29">
+        <v>107.71</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>37.58</v>
+      </c>
+      <c r="H29">
+        <v>58.79</v>
+      </c>
+      <c r="I29">
+        <v>26.65</v>
+      </c>
+      <c r="J29">
+        <v>29.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>73.94</v>
+      </c>
+      <c r="C30">
+        <v>51.9</v>
+      </c>
+      <c r="D30">
+        <v>55.64</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>86.11</v>
+      </c>
+      <c r="H30">
+        <v>41.5</v>
+      </c>
+      <c r="I30">
+        <v>17.44</v>
+      </c>
+      <c r="J30">
+        <v>126.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>181.47</v>
+      </c>
+      <c r="C31">
+        <v>79.77</v>
+      </c>
+      <c r="D31">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>41.89</v>
+      </c>
+      <c r="H31">
+        <v>38.4</v>
+      </c>
+      <c r="I31">
+        <v>36.83</v>
+      </c>
+      <c r="J31">
+        <v>206.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>71.92</v>
+      </c>
+      <c r="C32">
+        <v>114.31</v>
+      </c>
+      <c r="D32">
+        <v>90.37</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>114.81</v>
+      </c>
+      <c r="G32">
+        <v>54.39</v>
+      </c>
+      <c r="H32">
+        <v>43.91</v>
+      </c>
+      <c r="I32">
+        <v>60.76</v>
+      </c>
+      <c r="J32">
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>25.46</v>
+      </c>
+      <c r="C33">
+        <v>35.62</v>
+      </c>
+      <c r="D33">
+        <v>69.55</v>
+      </c>
+      <c r="E33">
+        <v>29.72</v>
+      </c>
+      <c r="F33">
+        <v>34.83</v>
+      </c>
+      <c r="G33">
+        <v>13.69</v>
+      </c>
+      <c r="H33">
+        <v>34.85</v>
+      </c>
+      <c r="I33">
+        <v>10.97</v>
+      </c>
+      <c r="J33">
+        <v>52.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>20.96</v>
+      </c>
+      <c r="C34">
+        <v>65.58</v>
+      </c>
+      <c r="D34">
+        <v>148.74</v>
+      </c>
+      <c r="E34">
+        <v>124.91</v>
+      </c>
+      <c r="F34">
+        <v>57.41</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>66.11</v>
+      </c>
+      <c r="I34">
+        <v>16.98</v>
+      </c>
+      <c r="J34">
+        <v>69.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>23.34</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>41.33</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>12.07</v>
+      </c>
+      <c r="J35">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>14.23</v>
+      </c>
+      <c r="D36">
+        <v>24.83</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>27.19</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>55.06</v>
+      </c>
+      <c r="C37">
+        <v>68.73</v>
+      </c>
+      <c r="D37">
+        <v>31.83</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>86.11</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>25.33</v>
+      </c>
+      <c r="I37">
+        <v>9.35</v>
+      </c>
+      <c r="J37">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>5.05</v>
+      </c>
+      <c r="C38">
+        <v>26.09</v>
+      </c>
+      <c r="D38">
+        <v>52.58</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>23.25</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>36.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>141.4</v>
+      </c>
+      <c r="C39">
+        <v>46.34</v>
+      </c>
+      <c r="D39">
+        <v>188.87</v>
+      </c>
+      <c r="E39">
+        <v>142.08</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>89.86</v>
+      </c>
+      <c r="H39">
+        <v>95.75</v>
+      </c>
+      <c r="I39">
+        <v>37.97</v>
+      </c>
+      <c r="J39">
+        <v>174.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>50.69</v>
+      </c>
+      <c r="D40">
+        <v>27.25</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>10.57</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>46.39</v>
+      </c>
+      <c r="C41">
+        <v>55.04</v>
+      </c>
+      <c r="D41">
+        <v>37.95</v>
+      </c>
+      <c r="E41">
+        <v>16.94</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>56.43</v>
+      </c>
+      <c r="H41">
+        <v>46.4</v>
+      </c>
+      <c r="I41">
+        <v>20.72</v>
+      </c>
+      <c r="J41">
+        <v>60.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>84.8</v>
+      </c>
+      <c r="C42">
+        <v>129.17</v>
+      </c>
+      <c r="D42">
+        <v>102.01</v>
+      </c>
+      <c r="E42">
+        <v>30.1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>73.81</v>
+      </c>
+      <c r="H42">
+        <v>87.08</v>
+      </c>
+      <c r="I42">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="J42">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>14.46</v>
+      </c>
+      <c r="C43">
+        <v>15.79</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>16.94</v>
+      </c>
+      <c r="H43">
+        <v>14.06</v>
+      </c>
+      <c r="I43">
+        <v>6.21</v>
+      </c>
+      <c r="J43">
+        <v>20.26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>39.14</v>
+      </c>
+      <c r="C44">
+        <v>48.23</v>
+      </c>
+      <c r="D44">
+        <v>24.24</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>35.59</v>
+      </c>
+      <c r="I44">
+        <v>4.47</v>
+      </c>
+      <c r="J44">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>45.55</v>
+      </c>
+      <c r="C45">
+        <v>27.83</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>77.5</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>54.17</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>114.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>63.08</v>
+      </c>
+      <c r="C46">
+        <v>38.94</v>
+      </c>
+      <c r="D46">
+        <v>58.45</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>29.37</v>
+      </c>
+      <c r="I46">
+        <v>19.9</v>
+      </c>
+      <c r="J46">
+        <v>75.15000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
